--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43983</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44211</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45149</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43336</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>44199</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>45125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45050</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44000</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44206</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43432</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43987</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>44039</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44420</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44972</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43523</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43731</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43923</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43924</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44235</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44253</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44309</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44401</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44648</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45112</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43658</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43726</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43775</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>43833</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43837</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44141</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44195</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>44494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>44522</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44812</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44960</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44972</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44994</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45132</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45149</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>43332</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>43335</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>43340</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>43347</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43350</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43360</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43370</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>43375</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43395</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43409</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43412</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43418</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43423</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43432</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>43440</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>43444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>43448</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>43451</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43453</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>43467</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>43468</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>43472</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>43476</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>43479</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43480</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43487</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43496</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43497</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43500</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>43501</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43503</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>43507</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>43509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43542</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43545</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43558</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43559</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>43594</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>43613</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>43640</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43648</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43656</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43661</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>43664</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>43682</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43690</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43721</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>43726</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>43733</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>43746</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>43765</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>43775</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43791</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43803</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>43833</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>43852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>43858</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>43878</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43896</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>43910</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>43913</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>43915</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>43923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>43927</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>43935</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>43944</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43964</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43966</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>43977</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>43983</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44000</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44022</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44036</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44039</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44069</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44071</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44078</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44084</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44088</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44092</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44097</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44105</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44118</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44129</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44131</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44144</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>44148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>44151</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44153</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44154</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44155</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44161</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>44162</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44165</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44168</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44169</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44172</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44186</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44193</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44195</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44208</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44211</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44216</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>44231</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>44235</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>44237</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44243</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44246</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44253</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44266</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>44328</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>44330</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>44341</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44344</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44347</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>44357</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>44361</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44371</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44377</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44378</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44379</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44382</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44386</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>44389</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>44397</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>44406</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44419</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44420</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>44434</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44435</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44442</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44452</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28896,7 +28896,7 @@
         <v>44453</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44473</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>44482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>44483</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44484</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44488</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44489</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44490</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44498</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44500</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>44501</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44502</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44503</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44505</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44511</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44515</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44522</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44531</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44532</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44533</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44540</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44543</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44544</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44545</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44560</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44567</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44568</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44578</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44594</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44595</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44609</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         <v>44613</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44615</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44617</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>44619</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>44620</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>44621</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32741,7 +32741,7 @@
         <v>44622</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>44623</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32917,7 +32917,7 @@
         <v>44625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32974,7 +32974,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33031,7 +33031,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33088,7 +33088,7 @@
         <v>44628</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33145,7 +33145,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>44637</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33259,7 +33259,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33373,7 +33373,7 @@
         <v>44640</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44642</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>44657</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>44658</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44686</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44690</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>44692</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44693</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>44698</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>44700</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44708</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34687,7 +34687,7 @@
         <v>44712</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44713</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>44719</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44735</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44743</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44747</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44748</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>44749</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>44754</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44755</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>44756</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36450,7 +36450,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36507,7 +36507,7 @@
         <v>44757</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>44773</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         <v>44776</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36683,7 +36683,7 @@
         <v>44784</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44788</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44790</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44797</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>44798</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>44799</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>44802</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>44803</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>44805</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44806</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44810</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44812</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44813</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44817</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44824</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44826</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44831</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38560,7 +38560,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44834</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44837</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44839</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44844</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44847</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44853</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44855</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44857</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39693,7 +39693,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39941,7 +39941,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39998,7 +39998,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44875</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44879</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40179,7 +40179,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>44881</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>44886</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40474,7 +40474,7 @@
         <v>44888</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40531,7 +40531,7 @@
         <v>44889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40588,7 +40588,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40702,7 +40702,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40759,7 +40759,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40997,7 +40997,7 @@
         <v>44890</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44893</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41178,7 +41178,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44901</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44903</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44914</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41587,7 +41587,7 @@
         <v>44917</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44918</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41758,7 +41758,7 @@
         <v>44923</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41820,7 +41820,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44928</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44936</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44938</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>44939</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42492,7 +42492,7 @@
         <v>44942</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42549,7 +42549,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42606,7 +42606,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42663,7 +42663,7 @@
         <v>44943</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42720,7 +42720,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42777,7 +42777,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42834,7 +42834,7 @@
         <v>44955</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42891,7 +42891,7 @@
         <v>44956</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44957</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44960</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43243,7 +43243,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43300,7 +43300,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>44964</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
         <v>44971</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43538,7 +43538,7 @@
         <v>44972</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43724,7 +43724,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43848,7 +43848,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44034,7 +44034,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44220,7 +44220,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44282,7 +44282,7 @@
         <v>44973</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44344,7 +44344,7 @@
         <v>44977</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44406,7 +44406,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44463,7 +44463,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44525,7 +44525,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44644,7 +44644,7 @@
         <v>44981</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45110,7 +45110,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>44987</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         <v>44993</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>44995</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45472,7 +45472,7 @@
         <v>45000</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45643,7 +45643,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>45042</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         <v>45043</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>45048</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45938,7 +45938,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45995,7 +45995,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46052,7 +46052,7 @@
         <v>45051</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46114,7 +46114,7 @@
         <v>45054</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>45062</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46533,7 +46533,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46647,7 +46647,7 @@
         <v>45084</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46709,7 +46709,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45089</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45090</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>45092</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47185,7 +47185,7 @@
         <v>45093</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45098</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47542,7 +47542,7 @@
         <v>45099</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>45104</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         <v>45105</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47790,7 +47790,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47852,7 +47852,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47914,7 +47914,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48157,7 +48157,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48219,7 +48219,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48281,7 +48281,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48338,7 +48338,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48395,7 +48395,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48452,7 +48452,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48509,7 +48509,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48566,7 +48566,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48623,7 +48623,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48747,7 +48747,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48985,7 +48985,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49047,7 +49047,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49104,7 +49104,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49161,7 +49161,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43983</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44211</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45149</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43336</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45149</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43332</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43335</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43340</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43347</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>43350</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43360</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43370</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43375</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>43377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43395</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43409</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>43412</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43418</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43423</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43432</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>43440</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>43444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43448</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43451</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43453</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43467</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43468</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43472</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43476</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43479</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43480</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43487</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43496</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43497</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43500</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43501</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43503</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43507</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43542</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43545</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43558</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43559</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>43592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43594</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43613</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43640</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43648</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>43656</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43661</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43664</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43682</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43690</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>43700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>43705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>43721</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>43726</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>43728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>43733</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>43746</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>43765</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43775</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43791</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43803</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43833</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43858</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>43878</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43896</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>43910</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43913</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>43915</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>43927</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>43935</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>43944</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43964</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>43966</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>43977</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>43983</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44000</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44022</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44036</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44039</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44069</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44071</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44078</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44084</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44088</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44092</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44097</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44105</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44118</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44129</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44131</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44144</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44151</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44153</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44154</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44155</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44161</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44162</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44165</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44168</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44169</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44172</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44186</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44193</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44195</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44208</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44211</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44216</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44231</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44235</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44237</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44243</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44246</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44253</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44266</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44328</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44330</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44341</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44344</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>44347</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44357</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44361</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>44371</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44377</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44378</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44379</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>44382</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44386</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44389</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>44397</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>44406</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>44419</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44420</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28174,7 +28174,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>44434</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44435</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44442</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44452</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44453</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>44473</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>44483</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44484</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29642,7 +29642,7 @@
         <v>44488</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29699,7 +29699,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>44489</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44490</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44498</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44500</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44501</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>44502</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44503</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44505</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44511</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44515</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44522</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30988,7 +30988,7 @@
         <v>44531</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44532</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44533</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44540</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44543</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44544</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44545</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44560</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44567</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44568</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44578</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44594</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44595</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>44609</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44613</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44615</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44617</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44619</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>44620</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44621</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>44622</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44623</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44628</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44637</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44640</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44642</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44657</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44658</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44686</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34027,7 +34027,7 @@
         <v>44690</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34089,7 +34089,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44692</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44693</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44698</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34446,7 +34446,7 @@
         <v>44700</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34508,7 +34508,7 @@
         <v>44708</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>44712</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44713</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44719</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44735</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35289,7 +35289,7 @@
         <v>44741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
         <v>44743</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35408,7 +35408,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44747</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44748</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44749</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44754</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44755</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
         <v>44756</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>44757</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44773</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44776</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44784</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>44788</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36871,7 +36871,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44790</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37114,7 +37114,7 @@
         <v>44797</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>44798</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>44799</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>44802</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37424,7 +37424,7 @@
         <v>44803</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>44805</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44806</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44810</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44812</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>44813</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>44817</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44824</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44826</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>44831</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44834</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38691,7 +38691,7 @@
         <v>44837</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38748,7 +38748,7 @@
         <v>44839</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44844</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44847</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44853</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39519,7 +39519,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39581,7 +39581,7 @@
         <v>44855</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         <v>44857</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44875</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44879</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44881</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44886</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44888</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41004,7 +41004,7 @@
         <v>44890</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41061,7 +41061,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41123,7 +41123,7 @@
         <v>44893</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41185,7 +41185,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41247,7 +41247,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41304,7 +41304,7 @@
         <v>44901</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>44903</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>44914</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41594,7 +41594,7 @@
         <v>44917</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41651,7 +41651,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41708,7 +41708,7 @@
         <v>44918</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41765,7 +41765,7 @@
         <v>44923</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44928</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>44936</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>44938</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42127,7 +42127,7 @@
         <v>44939</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42251,7 +42251,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42313,7 +42313,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42437,7 +42437,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44942</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44943</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44955</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44956</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44957</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>44960</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>44964</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44971</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44972</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43607,7 +43607,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43917,7 +43917,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>44973</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44351,7 +44351,7 @@
         <v>44977</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44413,7 +44413,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44470,7 +44470,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44532,7 +44532,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44594,7 +44594,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44651,7 +44651,7 @@
         <v>44981</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44713,7 +44713,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44775,7 +44775,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44832,7 +44832,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44987</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44993</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44995</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45479,7 +45479,7 @@
         <v>45000</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45536,7 +45536,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45712,7 +45712,7 @@
         <v>45042</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45774,7 +45774,7 @@
         <v>45043</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45831,7 +45831,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45888,7 +45888,7 @@
         <v>45048</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45945,7 +45945,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46002,7 +46002,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>45051</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46121,7 +46121,7 @@
         <v>45054</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46183,7 +46183,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46245,7 +46245,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46302,7 +46302,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45062</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45084</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46716,7 +46716,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46778,7 +46778,7 @@
         <v>45089</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45090</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47011,7 +47011,7 @@
         <v>45092</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47073,7 +47073,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47130,7 +47130,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47192,7 +47192,7 @@
         <v>45093</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47254,7 +47254,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47311,7 +47311,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45098</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47487,7 +47487,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45099</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45104</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45105</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47797,7 +47797,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48288,7 +48288,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48754,7 +48754,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48992,7 +48992,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49054,7 +49054,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49111,7 +49111,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49168,7 +49168,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49225,7 +49225,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5124,14 +5124,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25504-2020</t>
+          <t>A 38406-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43983</v>
+        <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5143,45 +5143,138 @@
           <t>VILHELMINA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>18.6</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>8</v>
+      </c>
+      <c r="P44" t="n">
         <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>7</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>9</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>Rynkskinn
+Ulltickeporing
+Doftskinn
+Garnlav
+Granticka
+Rosenticka
+Tretåig hackspett
+Ullticka
+Trådticka</t>
+        </is>
+      </c>
+      <c r="S44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 38406-2018.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 38406-2018.png")</f>
+        <v/>
+      </c>
+      <c r="V44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 38406-2018.docx")</f>
+        <v/>
+      </c>
+      <c r="W44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 38406-2018.docx")</f>
+        <v/>
+      </c>
+      <c r="X44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 38406-2018.docx")</f>
+        <v/>
+      </c>
+      <c r="Y44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 38406-2018.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A 25504-2020</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>9</v>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -5194,92 +5287,92 @@
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 25504-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 25504-2020.png")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 25504-2020.docx")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 25504-2020.docx")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 25504-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 25504-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 33672-2023</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>45119</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>VILHELMINA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="C46" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>28.7</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>8</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>8</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>9</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Garnlav
@@ -5292,92 +5385,92 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 33672-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 33672-2023.png")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 33672-2023.docx")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 33672-2023.docx")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 33672-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 33672-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>A 33668-2023</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47" s="1" t="n">
         <v>45119</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>VILHELMINA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="C47" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>3.6</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J47" t="n">
         <v>4</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>5</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>9</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -5390,92 +5483,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 33668-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 33668-2023.png")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 33668-2023.docx")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 33668-2023.docx")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 33668-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 33668-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>A 2196-2021</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48" s="1" t="n">
         <v>44211</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>VILHELMINA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="C48" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G48" t="n">
         <v>20.3</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>5</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K48" t="n">
         <v>3</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>8</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P48" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q48" t="n">
         <v>8</v>
       </c>
-      <c r="R47" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Rynkskinn
@@ -5487,92 +5580,92 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S47">
+      <c r="S48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 2196-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T47">
+      <c r="T48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 2196-2021.png")</f>
         <v/>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 2196-2021.docx")</f>
         <v/>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 2196-2021.docx")</f>
         <v/>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 2196-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 2196-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>A 36220-2023</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49" s="1" t="n">
         <v>45149</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>VILHELMINA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="C49" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G49" t="n">
         <v>3.8</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J49" t="n">
         <v>6</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>6</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>8</v>
       </c>
-      <c r="R48" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -5584,119 +5677,28 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S48">
+      <c r="S49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 36220-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T48">
+      <c r="T49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 36220-2023.png")</f>
         <v/>
       </c>
-      <c r="V48">
+      <c r="V49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 36220-2023.docx")</f>
         <v/>
       </c>
-      <c r="W48">
+      <c r="W49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 36220-2023.docx")</f>
         <v/>
       </c>
-      <c r="X48">
+      <c r="X49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 36220-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y48">
+      <c r="Y49">
         <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 36220-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>A 38406-2018</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>43336</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>VILHELMINA</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>6</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>7</v>
-      </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Ulltickeporing
-Granticka
-Rosenticka
-Tretåig hackspett
-Ullticka
-Trådticka</t>
-        </is>
-      </c>
-      <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/artfynd/A 38406-2018.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/kartor/A 38406-2018.png")</f>
-        <v/>
-      </c>
-      <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomål/A 38406-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/klagomålsmail/A 38406-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsyn/A 38406-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VILHELMINA/tillsynsmail/A 38406-2018.docx")</f>
         <v/>
       </c>
     </row>
@@ -5710,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5806,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5902,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5997,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6088,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6179,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6275,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6365,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6454,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6543,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6632,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6721,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6814,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6907,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6999,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7091,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7183,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7275,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7362,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7449,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7541,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7633,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7725,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7816,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7907,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7998,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8089,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8175,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8261,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8352,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8438,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8524,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8610,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8696,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8787,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8873,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8959,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9049,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9139,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9229,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9314,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9404,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9494,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9584,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9669,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9759,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9844,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9929,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10019,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10109,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10199,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10289,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10374,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10464,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10554,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10639,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10729,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10819,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10909,7 +10911,7 @@
         <v>45149</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10999,7 +11001,7 @@
         <v>43332</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11056,7 +11058,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11113,7 +11115,7 @@
         <v>43335</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11175,7 +11177,7 @@
         <v>43340</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11232,7 +11234,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11289,7 +11291,7 @@
         <v>43347</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11351,7 +11353,7 @@
         <v>43350</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11408,7 +11410,7 @@
         <v>43360</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11465,7 +11467,7 @@
         <v>43370</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11522,7 +11524,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11579,7 +11581,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11636,7 +11638,7 @@
         <v>43375</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11698,7 +11700,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11760,7 +11762,7 @@
         <v>43377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11822,7 +11824,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11879,7 +11881,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11936,7 +11938,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11993,7 +11995,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12055,7 +12057,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12112,7 +12114,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12174,7 +12176,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12236,7 +12238,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12298,7 +12300,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12360,7 +12362,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12422,7 +12424,7 @@
         <v>43395</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12479,7 +12481,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12536,7 +12538,7 @@
         <v>43409</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12598,7 +12600,7 @@
         <v>43412</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12655,7 +12657,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12717,7 +12719,7 @@
         <v>43418</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12779,7 +12781,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12841,7 +12843,7 @@
         <v>43423</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12903,7 +12905,7 @@
         <v>43432</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12960,7 +12962,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13022,7 +13024,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13084,7 +13086,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13146,7 +13148,7 @@
         <v>43440</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13203,7 +13205,7 @@
         <v>43444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13260,7 +13262,7 @@
         <v>43448</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13322,7 +13324,7 @@
         <v>43451</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13379,7 +13381,7 @@
         <v>43453</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13436,7 +13438,7 @@
         <v>43467</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13493,7 +13495,7 @@
         <v>43468</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13550,7 +13552,7 @@
         <v>43472</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13607,7 +13609,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13664,7 +13666,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13721,7 +13723,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13778,7 +13780,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13835,7 +13837,7 @@
         <v>43476</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13892,7 +13894,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13949,7 +13951,7 @@
         <v>43479</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14006,7 +14008,7 @@
         <v>43480</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14068,7 +14070,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14130,7 +14132,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14192,7 +14194,7 @@
         <v>43487</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14249,7 +14251,7 @@
         <v>43496</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14306,7 +14308,7 @@
         <v>43497</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14363,7 +14365,7 @@
         <v>43500</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14420,7 +14422,7 @@
         <v>43501</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14477,7 +14479,7 @@
         <v>43503</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14534,7 +14536,7 @@
         <v>43507</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14591,7 +14593,7 @@
         <v>43509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14648,7 +14650,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14705,7 +14707,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14762,7 +14764,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14819,7 +14821,7 @@
         <v>43523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14881,7 +14883,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14938,7 +14940,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15000,7 +15002,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15057,7 +15059,7 @@
         <v>43542</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15114,7 +15116,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15176,7 +15178,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15238,7 +15240,7 @@
         <v>43545</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15295,7 +15297,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15352,7 +15354,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15409,7 +15411,7 @@
         <v>43558</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15466,7 +15468,7 @@
         <v>43559</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15528,7 +15530,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15590,7 +15592,7 @@
         <v>43564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15647,7 +15649,7 @@
         <v>43592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15709,7 +15711,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15771,7 +15773,7 @@
         <v>43594</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15833,7 +15835,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15895,7 +15897,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15952,7 +15954,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16009,7 +16011,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16066,7 +16068,7 @@
         <v>43613</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16128,7 +16130,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16190,7 +16192,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16252,7 +16254,7 @@
         <v>43640</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16309,7 +16311,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16366,7 +16368,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16423,7 +16425,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16480,7 +16482,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16537,7 +16539,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16594,7 +16596,7 @@
         <v>43648</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16651,7 +16653,7 @@
         <v>43656</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16708,7 +16710,7 @@
         <v>43661</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16770,7 +16772,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16832,7 +16834,7 @@
         <v>43664</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16889,7 +16891,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16946,7 +16948,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17003,7 +17005,7 @@
         <v>43682</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17060,7 +17062,7 @@
         <v>43690</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17117,7 +17119,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17179,7 +17181,7 @@
         <v>43700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17241,7 +17243,7 @@
         <v>43703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17298,7 +17300,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17360,7 +17362,7 @@
         <v>43705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17422,7 +17424,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17479,7 +17481,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17536,7 +17538,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17598,7 +17600,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17660,7 +17662,7 @@
         <v>43721</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17722,7 +17724,7 @@
         <v>43726</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17779,7 +17781,7 @@
         <v>43728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17836,7 +17838,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17893,7 +17895,7 @@
         <v>43733</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17955,7 +17957,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18017,7 +18019,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18079,7 +18081,7 @@
         <v>43741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18141,7 +18143,7 @@
         <v>43746</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18198,7 +18200,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18260,7 +18262,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18322,7 +18324,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18379,7 +18381,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18441,7 +18443,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18503,7 +18505,7 @@
         <v>43765</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18560,7 +18562,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18617,7 +18619,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18674,7 +18676,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18731,7 +18733,7 @@
         <v>43775</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18788,7 +18790,7 @@
         <v>43791</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18845,7 +18847,7 @@
         <v>43803</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18902,7 +18904,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18959,7 +18961,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19016,7 +19018,7 @@
         <v>43815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19073,7 +19075,7 @@
         <v>43833</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19135,7 +19137,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19197,7 +19199,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19259,7 +19261,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19316,7 +19318,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19373,7 +19375,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19435,7 +19437,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19492,7 +19494,7 @@
         <v>43852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19554,7 +19556,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19611,7 +19613,7 @@
         <v>43858</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19668,7 +19670,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19725,7 +19727,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19787,7 +19789,7 @@
         <v>43878</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19849,7 +19851,7 @@
         <v>43896</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19911,7 +19913,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19973,7 +19975,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20035,7 +20037,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20097,7 +20099,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20154,7 +20156,7 @@
         <v>43910</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20211,7 +20213,7 @@
         <v>43913</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20273,7 +20275,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20335,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20397,7 +20399,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20454,7 +20456,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20516,7 +20518,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20578,7 +20580,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20640,7 +20642,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20702,7 +20704,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20759,7 +20761,7 @@
         <v>43915</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20816,7 +20818,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20878,7 +20880,7 @@
         <v>43923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20935,7 +20937,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20997,7 +20999,7 @@
         <v>43927</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21059,7 +21061,7 @@
         <v>43935</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21116,7 +21118,7 @@
         <v>43944</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21173,7 +21175,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21235,7 +21237,7 @@
         <v>43964</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21292,7 +21294,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21349,7 +21351,7 @@
         <v>43966</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21411,7 +21413,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21473,7 +21475,7 @@
         <v>43977</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21535,7 +21537,7 @@
         <v>43983</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21597,7 +21599,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21659,7 +21661,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21723,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21785,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21842,7 @@
         <v>44000</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21902,7 +21904,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21964,7 +21966,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22026,7 +22028,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22088,7 +22090,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22150,7 +22152,7 @@
         <v>44022</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22207,7 +22209,7 @@
         <v>44036</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22264,7 +22266,7 @@
         <v>44039</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22321,7 +22323,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22378,7 +22380,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22440,7 +22442,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22497,7 +22499,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22554,7 +22556,7 @@
         <v>44069</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22611,7 +22613,7 @@
         <v>44071</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22668,7 +22670,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22730,7 +22732,7 @@
         <v>44078</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22792,7 +22794,7 @@
         <v>44084</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22854,7 +22856,7 @@
         <v>44088</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22911,7 +22913,7 @@
         <v>44092</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22973,7 +22975,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23035,7 +23037,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23097,7 +23099,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23159,7 +23161,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23221,7 +23223,7 @@
         <v>44097</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23278,7 +23280,7 @@
         <v>44105</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23335,7 +23337,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23392,7 +23394,7 @@
         <v>44118</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23454,7 +23456,7 @@
         <v>44129</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23511,7 +23513,7 @@
         <v>44131</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23568,7 +23570,7 @@
         <v>44144</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23630,7 +23632,7 @@
         <v>44148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23692,7 +23694,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23749,7 +23751,7 @@
         <v>44151</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23806,7 +23808,7 @@
         <v>44153</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23868,7 +23870,7 @@
         <v>44154</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23930,7 +23932,7 @@
         <v>44155</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23987,7 +23989,7 @@
         <v>44161</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24049,7 +24051,7 @@
         <v>44162</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24111,7 +24113,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24173,7 +24175,7 @@
         <v>44165</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24230,7 +24232,7 @@
         <v>44168</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24287,7 +24289,7 @@
         <v>44169</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24344,7 +24346,7 @@
         <v>44172</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24401,7 +24403,7 @@
         <v>44186</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24463,7 +24465,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24525,7 +24527,7 @@
         <v>44193</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24582,7 +24584,7 @@
         <v>44195</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24639,7 +24641,7 @@
         <v>44208</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24701,7 +24703,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24763,7 +24765,7 @@
         <v>44211</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24825,7 +24827,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24887,7 +24889,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24949,7 +24951,7 @@
         <v>44216</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25006,7 +25008,7 @@
         <v>44231</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25063,7 +25065,7 @@
         <v>44235</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25120,7 +25122,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25177,7 +25179,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25234,7 +25236,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25291,7 +25293,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25348,7 +25350,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25405,7 +25407,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25462,7 +25464,7 @@
         <v>44237</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25524,7 +25526,7 @@
         <v>44243</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25581,7 +25583,7 @@
         <v>44246</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25638,7 +25640,7 @@
         <v>44253</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25695,7 +25697,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25752,7 +25754,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25809,7 +25811,7 @@
         <v>44266</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25871,7 +25873,7 @@
         <v>44307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25928,7 +25930,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25985,7 +25987,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26042,7 +26044,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26099,7 +26101,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26156,7 +26158,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26213,7 +26215,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26270,7 +26272,7 @@
         <v>44328</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26332,7 +26334,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26394,7 +26396,7 @@
         <v>44330</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26451,7 +26453,7 @@
         <v>44341</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26508,7 +26510,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26565,7 +26567,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26622,7 +26624,7 @@
         <v>44344</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26684,7 +26686,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26746,7 +26748,7 @@
         <v>44347</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26803,7 +26805,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26865,7 +26867,7 @@
         <v>44357</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26927,7 +26929,7 @@
         <v>44361</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26989,7 +26991,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27051,7 +27053,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27113,7 +27115,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27175,7 +27177,7 @@
         <v>44371</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27232,7 +27234,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27289,7 +27291,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27346,7 +27348,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27403,7 +27405,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27460,7 +27462,7 @@
         <v>44377</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27517,7 +27519,7 @@
         <v>44378</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27574,7 +27576,7 @@
         <v>44379</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27636,7 +27638,7 @@
         <v>44382</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27698,7 +27700,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27760,7 +27762,7 @@
         <v>44386</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27822,7 +27824,7 @@
         <v>44389</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27879,7 +27881,7 @@
         <v>44397</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27941,7 +27943,7 @@
         <v>44406</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27998,7 +28000,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28055,7 +28057,7 @@
         <v>44419</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28117,7 +28119,7 @@
         <v>44420</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28174,7 +28176,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28236,7 +28238,7 @@
         <v>44434</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28298,7 +28300,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28360,7 +28362,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28422,7 +28424,7 @@
         <v>44435</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28479,7 +28481,7 @@
         <v>44442</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28541,7 +28543,7 @@
         <v>44452</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28603,7 +28605,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28665,7 +28667,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28727,7 +28729,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28789,7 +28791,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28846,7 +28848,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28903,7 +28905,7 @@
         <v>44453</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28965,7 +28967,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29027,7 +29029,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29089,7 +29091,7 @@
         <v>44473</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29151,7 +29153,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29213,7 +29215,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29275,7 +29277,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29337,7 +29339,7 @@
         <v>44481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29399,7 +29401,7 @@
         <v>44482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29456,7 +29458,7 @@
         <v>44483</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29518,7 +29520,7 @@
         <v>44484</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29580,7 +29582,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29642,7 +29644,7 @@
         <v>44488</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29699,7 +29701,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29756,7 +29758,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29813,7 +29815,7 @@
         <v>44489</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29875,7 +29877,7 @@
         <v>44490</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29932,7 +29934,7 @@
         <v>44498</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29994,7 +29996,7 @@
         <v>44500</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30056,7 +30058,7 @@
         <v>44501</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30118,7 +30120,7 @@
         <v>44502</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30175,7 +30177,7 @@
         <v>44503</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30237,7 +30239,7 @@
         <v>44505</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30294,7 +30296,7 @@
         <v>44511</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30351,7 +30353,7 @@
         <v>44515</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30408,7 +30410,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30465,7 +30467,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30522,7 +30524,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30579,7 +30581,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30636,7 +30638,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30693,7 +30695,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30750,7 +30752,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30807,7 +30809,7 @@
         <v>44522</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30869,7 +30871,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30931,7 +30933,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30988,7 +30990,7 @@
         <v>44531</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31045,7 +31047,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31107,7 +31109,7 @@
         <v>44532</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31164,7 +31166,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31221,7 +31223,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31278,7 +31280,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31335,7 +31337,7 @@
         <v>44533</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31392,7 +31394,7 @@
         <v>44540</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31449,7 +31451,7 @@
         <v>44543</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31506,7 +31508,7 @@
         <v>44544</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31563,7 +31565,7 @@
         <v>44545</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31620,7 +31622,7 @@
         <v>44560</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31677,7 +31679,7 @@
         <v>44567</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31734,7 +31736,7 @@
         <v>44568</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31791,7 +31793,7 @@
         <v>44578</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31848,7 +31850,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31905,7 +31907,7 @@
         <v>44594</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31962,7 +31964,7 @@
         <v>44595</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32024,7 +32026,7 @@
         <v>44609</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32081,7 +32083,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32143,7 +32145,7 @@
         <v>44613</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32205,7 +32207,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32267,7 +32269,7 @@
         <v>44615</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32324,7 +32326,7 @@
         <v>44617</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32386,7 +32388,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32448,7 +32450,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32510,7 +32512,7 @@
         <v>44619</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32567,7 +32569,7 @@
         <v>44620</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32629,7 +32631,7 @@
         <v>44621</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32686,7 +32688,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32748,7 +32750,7 @@
         <v>44622</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32805,7 +32807,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32862,7 +32864,7 @@
         <v>44623</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32924,7 +32926,7 @@
         <v>44625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32981,7 +32983,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33038,7 +33040,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33095,7 +33097,7 @@
         <v>44628</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33152,7 +33154,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33209,7 +33211,7 @@
         <v>44637</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33266,7 +33268,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33323,7 +33325,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33380,7 +33382,7 @@
         <v>44640</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33437,7 +33439,7 @@
         <v>44642</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33494,7 +33496,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33551,7 +33553,7 @@
         <v>44657</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33608,7 +33610,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33665,7 +33667,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33722,7 +33724,7 @@
         <v>44658</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33779,7 +33781,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33841,7 +33843,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33903,7 +33905,7 @@
         <v>44686</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33965,7 +33967,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34027,7 +34029,7 @@
         <v>44690</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34089,7 +34091,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34151,7 +34153,7 @@
         <v>44692</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34213,7 +34215,7 @@
         <v>44693</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34270,7 +34272,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34327,7 +34329,7 @@
         <v>44698</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34389,7 +34391,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34446,7 +34448,7 @@
         <v>44700</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34508,7 +34510,7 @@
         <v>44708</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34570,7 +34572,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34632,7 +34634,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34694,7 +34696,7 @@
         <v>44712</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34756,7 +34758,7 @@
         <v>44713</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34813,7 +34815,7 @@
         <v>44719</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34875,7 +34877,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34932,7 +34934,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34989,7 +34991,7 @@
         <v>44735</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35051,7 +35053,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35113,7 +35115,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35170,7 +35172,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35232,7 +35234,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35289,7 +35291,7 @@
         <v>44741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35351,7 +35353,7 @@
         <v>44743</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35408,7 +35410,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35470,7 +35472,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35532,7 +35534,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35594,7 +35596,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35656,7 +35658,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35718,7 +35720,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35780,7 +35782,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35842,7 +35844,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35904,7 +35906,7 @@
         <v>44747</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35966,7 +35968,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36028,7 +36030,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36090,7 +36092,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36152,7 +36154,7 @@
         <v>44748</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36214,7 +36216,7 @@
         <v>44749</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36271,7 +36273,7 @@
         <v>44754</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36333,7 +36335,7 @@
         <v>44755</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36395,7 +36397,7 @@
         <v>44756</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36457,7 +36459,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36514,7 +36516,7 @@
         <v>44757</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36576,7 +36578,7 @@
         <v>44773</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36633,7 +36635,7 @@
         <v>44776</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36690,7 +36692,7 @@
         <v>44784</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36747,7 +36749,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36809,7 +36811,7 @@
         <v>44788</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36871,7 +36873,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36933,7 +36935,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36990,7 +36992,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37052,7 +37054,7 @@
         <v>44790</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37114,7 +37116,7 @@
         <v>44797</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37176,7 +37178,7 @@
         <v>44798</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37238,7 +37240,7 @@
         <v>44799</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37300,7 +37302,7 @@
         <v>44802</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37362,7 +37364,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37424,7 +37426,7 @@
         <v>44803</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37486,7 +37488,7 @@
         <v>44805</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37550,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37610,7 +37612,7 @@
         <v>44806</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37672,7 +37674,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37734,7 +37736,7 @@
         <v>44810</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37791,7 +37793,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37848,7 +37850,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37905,7 +37907,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37962,7 +37964,7 @@
         <v>44812</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38024,7 +38026,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38086,7 +38088,7 @@
         <v>44813</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38148,7 +38150,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38210,7 +38212,7 @@
         <v>44817</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38272,7 +38274,7 @@
         <v>44824</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38329,7 +38331,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38386,7 +38388,7 @@
         <v>44826</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38443,7 +38445,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38505,7 +38507,7 @@
         <v>44831</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38567,7 +38569,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38629,7 +38631,7 @@
         <v>44834</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38691,7 +38693,7 @@
         <v>44837</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38748,7 +38750,7 @@
         <v>44839</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38805,7 +38807,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38862,7 +38864,7 @@
         <v>44844</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38924,7 +38926,7 @@
         <v>44847</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38981,7 +38983,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39038,7 +39040,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39095,7 +39097,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39152,7 +39154,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39209,7 +39211,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39271,7 +39273,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39333,7 +39335,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39395,7 +39397,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39457,7 +39459,7 @@
         <v>44853</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39519,7 +39521,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39581,7 +39583,7 @@
         <v>44855</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39643,7 +39645,7 @@
         <v>44857</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39700,7 +39702,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39762,7 +39764,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39824,7 +39826,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39886,7 +39888,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39948,7 +39950,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40005,7 +40007,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40067,7 +40069,7 @@
         <v>44875</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40124,7 +40126,7 @@
         <v>44879</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40186,7 +40188,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40243,7 +40245,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40305,7 +40307,7 @@
         <v>44881</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40362,7 +40364,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40419,7 +40421,7 @@
         <v>44886</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40481,7 +40483,7 @@
         <v>44888</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40538,7 +40540,7 @@
         <v>44889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40595,7 +40597,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40652,7 +40654,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40709,7 +40711,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40766,7 +40768,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40828,7 +40830,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40885,7 +40887,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40942,7 +40944,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41004,7 +41006,7 @@
         <v>44890</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41061,7 +41063,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41123,7 +41125,7 @@
         <v>44893</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41185,7 +41187,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41247,7 +41249,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41304,7 +41306,7 @@
         <v>44901</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41361,7 +41363,7 @@
         <v>44903</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41418,7 +41420,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41475,7 +41477,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41532,7 +41534,7 @@
         <v>44914</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41594,7 +41596,7 @@
         <v>44917</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41651,7 +41653,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41708,7 +41710,7 @@
         <v>44918</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41765,7 +41767,7 @@
         <v>44923</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41827,7 +41829,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41884,7 +41886,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41946,7 +41948,7 @@
         <v>44928</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42008,7 +42010,7 @@
         <v>44936</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42070,7 +42072,7 @@
         <v>44938</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42127,7 +42129,7 @@
         <v>44939</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42189,7 +42191,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42251,7 +42253,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42313,7 +42315,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42375,7 +42377,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42437,7 +42439,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42499,7 +42501,7 @@
         <v>44942</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42556,7 +42558,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42613,7 +42615,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42670,7 +42672,7 @@
         <v>44943</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42727,7 +42729,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42784,7 +42786,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42841,7 +42843,7 @@
         <v>44955</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42898,7 +42900,7 @@
         <v>44956</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42955,7 +42957,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43012,7 +43014,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43069,7 +43071,7 @@
         <v>44957</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43126,7 +43128,7 @@
         <v>44960</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43188,7 +43190,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43250,7 +43252,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43307,7 +43309,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43369,7 +43371,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43426,7 +43428,7 @@
         <v>44964</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43488,7 +43490,7 @@
         <v>44971</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43545,7 +43547,7 @@
         <v>44972</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43607,7 +43609,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43669,7 +43671,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43731,7 +43733,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43793,7 +43795,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43855,7 +43857,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43917,7 +43919,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43979,7 +43981,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44041,7 +44043,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44103,7 +44105,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44165,7 +44167,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44227,7 +44229,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44289,7 +44291,7 @@
         <v>44973</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44351,7 +44353,7 @@
         <v>44977</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44413,7 +44415,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44470,7 +44472,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44532,7 +44534,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44594,7 +44596,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44651,7 +44653,7 @@
         <v>44981</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44713,7 +44715,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44775,7 +44777,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44832,7 +44834,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44889,7 +44891,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44946,7 +44948,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45003,7 +45005,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45060,7 +45062,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45117,7 +45119,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45174,7 +45176,7 @@
         <v>44987</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45231,7 +45233,7 @@
         <v>44993</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45293,7 +45295,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45355,7 +45357,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45417,7 +45419,7 @@
         <v>44995</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45479,7 +45481,7 @@
         <v>45000</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45536,7 +45538,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45593,7 +45595,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45650,7 +45652,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45712,7 +45714,7 @@
         <v>45042</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45774,7 +45776,7 @@
         <v>45043</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45831,7 +45833,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45888,7 +45890,7 @@
         <v>45048</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45945,7 +45947,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46002,7 +46004,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46059,7 +46061,7 @@
         <v>45051</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46121,7 +46123,7 @@
         <v>45054</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46183,7 +46185,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46245,7 +46247,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46302,7 +46304,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46359,7 +46361,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46421,7 +46423,7 @@
         <v>45062</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46478,7 +46480,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46540,7 +46542,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46597,7 +46599,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46654,7 +46656,7 @@
         <v>45084</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46716,7 +46718,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46778,7 +46780,7 @@
         <v>45089</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46835,7 +46837,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46892,7 +46894,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46949,7 +46951,7 @@
         <v>45090</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47011,7 +47013,7 @@
         <v>45092</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47073,7 +47075,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47130,7 +47132,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47192,7 +47194,7 @@
         <v>45093</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47254,7 +47256,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47311,7 +47313,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47368,7 +47370,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47425,7 +47427,7 @@
         <v>45098</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47487,7 +47489,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47549,7 +47551,7 @@
         <v>45099</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47611,7 +47613,7 @@
         <v>45104</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47673,7 +47675,7 @@
         <v>45105</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47735,7 +47737,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47797,7 +47799,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47859,7 +47861,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47921,7 +47923,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47983,7 +47985,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48045,7 +48047,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48102,7 +48104,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48164,7 +48166,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48226,7 +48228,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48288,7 +48290,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48345,7 +48347,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48402,7 +48404,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48459,7 +48461,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48516,7 +48518,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48573,7 +48575,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48630,7 +48632,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48692,7 +48694,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48754,7 +48756,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48816,7 +48818,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48873,7 +48875,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48930,7 +48932,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48992,7 +48994,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49054,7 +49056,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49111,7 +49113,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49168,7 +49170,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49225,7 +49227,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49287,7 +49289,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y753"/>
+  <dimension ref="A1:Y754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44881</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43731</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44964</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44522</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45054</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44095</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44474</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44361</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43983</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44211</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44664</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45132</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43726</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45050</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44206</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43987</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44039</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44732</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40397,7 +40397,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44133,7 +44133,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44562,7 +44562,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45095,7 +45095,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45209,7 +45209,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45323,7 +45323,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45571,7 +45571,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47284,7 +47284,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47403,7 +47403,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
       </c>
       <c r="R752" s="2" t="inlineStr"/>
     </row>
-    <row r="753">
+    <row r="753" ht="15" customHeight="1">
       <c r="A753" t="inlineStr">
         <is>
           <t>A 40095-2023</t>
@@ -49317,7 +49317,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49368,6 +49368,68 @@
         <v>0</v>
       </c>
       <c r="R753" s="2" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>A 45022-2023</t>
+        </is>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C754" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>VILHELMINA</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0</v>
+      </c>
+      <c r="J754" t="n">
+        <v>0</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N754" t="n">
+        <v>0</v>
+      </c>
+      <c r="O754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R754" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44266</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43731</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44964</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44972</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>45054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44095</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44838</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44945</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44838</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43336</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44095</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43781</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43731</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43336</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43983</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45149</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44000</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44664</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45132</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44199</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44609</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>45050</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44206</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43987</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44039</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45113</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39323,7 +39323,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39571,7 +39571,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39695,7 +39695,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40062,7 +40062,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40119,7 +40119,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41237,7 +41237,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41299,7 +41299,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41646,7 +41646,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41708,7 +41708,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41765,7 +41765,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41822,7 +41822,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42184,7 +42184,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42241,7 +42241,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42365,7 +42365,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44465,7 +44465,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44646,7 +44646,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44708,7 +44708,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44765,7 +44765,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45407,7 +45407,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45888,7 +45888,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45945,7 +45945,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46002,7 +46002,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46830,7 +46830,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47482,7 +47482,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47601,7 +47601,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47787,7 +47787,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47911,7 +47911,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47973,7 +47973,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48035,7 +48035,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48868,7 +48868,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48925,7 +48925,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48982,7 +48982,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49163,7 +49163,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49220,7 +49220,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49277,7 +49277,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>45190</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44266</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43731</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44964</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44972</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>45054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44095</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44838</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44945</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44838</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43336</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44095</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43781</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43731</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43336</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43983</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45149</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44000</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44664</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45132</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44199</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44609</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>45050</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44206</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43987</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44039</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45113</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39323,7 +39323,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39571,7 +39571,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39695,7 +39695,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40062,7 +40062,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40119,7 +40119,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41237,7 +41237,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41299,7 +41299,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41646,7 +41646,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41708,7 +41708,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41765,7 +41765,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41822,7 +41822,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42184,7 +42184,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42241,7 +42241,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42365,7 +42365,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44465,7 +44465,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44646,7 +44646,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44708,7 +44708,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44765,7 +44765,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45407,7 +45407,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45888,7 +45888,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45945,7 +45945,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46002,7 +46002,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46830,7 +46830,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47482,7 +47482,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47601,7 +47601,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47787,7 +47787,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47911,7 +47911,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47973,7 +47973,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48035,7 +48035,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48868,7 +48868,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48925,7 +48925,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48982,7 +48982,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49163,7 +49163,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49220,7 +49220,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49277,7 +49277,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>45190</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44266</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43731</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44964</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44972</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>45054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44095</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44838</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44945</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44838</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43336</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44095</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43781</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43731</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43336</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43983</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45149</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44000</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44664</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45132</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44199</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44609</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>45050</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44206</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43987</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44039</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45113</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44531</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44532</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44532</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44532</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44533</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44540</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44544</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44545</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44560</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44567</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44568</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44578</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44594</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44595</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44609</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44609</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44613</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44613</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44615</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44617</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44617</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44619</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44620</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44621</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44621</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44622</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>44622</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>44623</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44627</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44627</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44628</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44628</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44637</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44637</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44637</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44640</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44642</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44657</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44657</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44657</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44658</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>44679</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44686</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>44686</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>44690</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44692</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44693</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44693</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44698</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44700</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44708</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44712</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44713</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>44743</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44743</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>44743</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>44743</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44743</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44743</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44743</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44743</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44747</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44747</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44747</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>44747</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44748</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>44749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>44756</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>44756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44757</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44773</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44776</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44784</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44784</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44788</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>44788</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44788</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44788</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44790</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>44797</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>44798</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>44799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>44802</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44802</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>44803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>44805</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44805</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>44806</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>44806</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44810</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44810</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44810</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44810</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44812</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         <v>44813</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44813</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>44824</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>44826</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>44826</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>44831</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44831</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44834</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44837</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44839</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44839</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44847</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44847</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44847</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44847</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         <v>44847</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39323,7 +39323,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>44852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>44852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39571,7 +39571,7 @@
         <v>44853</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44853</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39695,7 +39695,7 @@
         <v>44855</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>44857</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44858</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44858</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44858</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40062,7 +40062,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40119,7 +40119,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>44879</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>44879</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>44879</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44881</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>44881</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>44886</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44888</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44890</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41237,7 +41237,7 @@
         <v>44893</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41299,7 +41299,7 @@
         <v>44896</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>44896</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44901</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44903</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>44903</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41646,7 +41646,7 @@
         <v>44914</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41708,7 +41708,7 @@
         <v>44917</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41765,7 +41765,7 @@
         <v>44917</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41822,7 +41822,7 @@
         <v>44918</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>44923</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44923</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44923</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44928</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44936</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42184,7 +42184,7 @@
         <v>44938</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42241,7 +42241,7 @@
         <v>44939</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>44939</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42365,7 +42365,7 @@
         <v>44939</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>44939</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44939</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>44939</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44942</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44943</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44945</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44955</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44956</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44956</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>44956</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>44957</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44960</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>44960</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44960</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44960</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44964</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44971</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44972</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>44972</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44972</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44972</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44972</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44972</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>44972</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44972</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44972</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44972</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>44972</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44972</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>44973</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44465,7 +44465,7 @@
         <v>44977</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>44977</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>44977</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44646,7 +44646,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44708,7 +44708,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44765,7 +44765,7 @@
         <v>44981</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>44985</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44985</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44985</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44985</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>44987</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>44993</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45407,7 +45407,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44995</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>45000</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45000</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45000</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         <v>45042</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45888,7 +45888,7 @@
         <v>45043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45945,7 +45945,7 @@
         <v>45043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46002,7 +46002,7 @@
         <v>45048</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>45048</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45048</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45051</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45054</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45054</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45056</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         <v>45056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>45062</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>45076</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45076</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>45084</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46830,7 +46830,7 @@
         <v>45084</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45089</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45089</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45090</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>45092</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45093</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>45093</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47482,7 +47482,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47601,7 +47601,7 @@
         <v>45098</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47787,7 +47787,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47911,7 +47911,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47973,7 +47973,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48035,7 +48035,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45119</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45140</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45140</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45140</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45142</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45145</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48868,7 +48868,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48925,7 +48925,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48982,7 +48982,7 @@
         <v>45154</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45154</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         <v>45155</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49163,7 +49163,7 @@
         <v>45155</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49220,7 +49220,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49277,7 +49277,7 @@
         <v>45161</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         <v>45168</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>45190</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -572,7 +572,7 @@
         <v>44350</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>44972</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44753</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44494</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44412</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44838</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44350</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44266</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43731</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44263</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44412</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45050</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44964</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45030</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44972</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>45054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44095</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44838</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44945</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44945</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44838</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43336</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44095</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43781</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43731</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43336</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43983</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45149</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44000</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44664</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45132</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44199</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44609</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>45050</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44206</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43987</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44039</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45113</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43523</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43923</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43924</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44235</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44401</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44781</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45098</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43726</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43775</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43837</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>44141</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44522</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44560</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44960</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44972</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45149</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43332</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43332</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43335</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43370</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43377</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43384</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>43384</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43389</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43395</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43409</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43412</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43432</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>43444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>43448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43451</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43453</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43468</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43472</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43476</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43479</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>43480</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43480</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43487</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43497</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43500</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43501</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43507</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43523</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43542</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43542</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>43542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43545</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43545</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43559</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43559</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>43592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43594</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43608</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43612</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>43613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43640</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43640</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43656</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43661</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>43661</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43664</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43664</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43682</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43700</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43705</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43705</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43718</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>43718</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>43726</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>43728</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>43731</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>43746</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>43749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43762</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43762</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43765</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43774</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43774</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43774</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43775</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43803</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43805</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43808</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43833</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43833</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>43833</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43878</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43896</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>43896</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>43913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>43913</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>43913</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>43913</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>43913</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43913</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43915</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>43923</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43927</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43944</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>43964</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>43964</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>43966</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>43966</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>43977</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43983</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43983</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44007</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44007</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44022</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44039</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44053</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44088</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44092</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44092</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44092</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44097</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44105</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44118</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44129</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44131</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44144</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44151</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44153</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44154</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44161</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44165</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44168</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44172</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44186</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44186</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44193</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44195</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44211</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44211</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44211</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44216</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44231</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44235</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44235</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44235</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44235</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44235</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44235</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44235</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44237</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44243</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44246</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44253</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44253</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44266</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44307</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44307</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>44307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>44328</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44330</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44341</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44341</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44344</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>44347</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44350</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44361</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44371</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44377</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44378</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44379</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44382</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44382</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44386</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>44389</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44397</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>44406</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>44419</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44420</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44434</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44434</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44434</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44435</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44442</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44452</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44452</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44452</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>44452</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44452</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44452</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44453</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44469</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>44473</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>44473</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44476</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44476</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44483</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44484</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>44488</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>44488</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44488</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44489</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44490</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44498</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44500</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44501</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44502</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44505</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>44511</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44515</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44515</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44515</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44515</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44515</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44515</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44522</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44522</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44529</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44531</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31159,7 +